--- a/Tax_Rate_Data_Analysis/tax_rate_data_original.xlsx
+++ b/Tax_Rate_Data_Analysis/tax_rate_data_original.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacky.chenyj/Desktop/work/Credit/Hiring/live coding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Feng\OneDrive\Desktop\Exploratory-Data-Analysis\Tax_Rate_Data_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F07519FE-526D-C641-B168-4DBAA7C83E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5B0A7D2A-9048-4F05-89EE-73B91110E5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="about" sheetId="2" r:id="rId1"/>
@@ -160,7 +160,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>the tax_rate tab in this file includes Shopee's tax rates data for different types of fees for each month in 2022 for Southeast Asia countries. The tax_type column contains a complete list of tax types, and every country should have every tax type. The effective_month column stores the year-month info, where "beginning" refers to the first month of 2022</t>
+      <t>the tax_rate tab in this file includes company tax rates data for different types of fees for each month in 2022 for Southeast Asia countries. The tax_type column contains a complete list of tax types, and every country should have every tax type. The effective_month column stores the year-month info, where "beginning" refers to the first month of 2022</t>
     </r>
   </si>
 </sst>
@@ -725,7 +725,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Per cent" xfId="42" builtinId="5"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1042,14 +1042,16 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="163.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="163.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="151" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="150.94999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>36</v>
       </c>
@@ -1064,20 +1066,20 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="90.83203125" customWidth="1"/>
+    <col min="6" max="6" width="90.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -1091,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1105,7 +1107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1119,7 +1121,7 @@
         <v>2022-04-01</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1133,7 +1135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1147,7 +1149,7 @@
         <v>2022-03-01</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1161,7 +1163,7 @@
         <v>2022-04-01</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1175,7 +1177,7 @@
         <v>2022-05-01</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1189,7 +1191,7 @@
         <v>2022-06-01</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1203,7 +1205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1217,7 +1219,7 @@
         <v>2022-04-01</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1231,7 +1233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1245,7 +1247,7 @@
         <v>2022-04-01</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1259,7 +1261,7 @@
         <v>2020-01-01</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1273,7 +1275,7 @@
         <v>2022-04-01</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1287,7 +1289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1301,7 +1303,7 @@
         <v>2022-04-01</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1315,7 +1317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1329,7 +1331,7 @@
         <v>2021-04-01</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1343,7 +1345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1357,7 +1359,7 @@
         <v>2022-05-01</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1371,7 +1373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1385,7 +1387,7 @@
         <v>2022-04-01</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1399,7 +1401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1413,7 +1415,7 @@
         <v>2022-04-01</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1427,7 +1429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1441,7 +1443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1455,7 +1457,7 @@
         <v>2022-04-01</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1469,7 +1471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -1483,7 +1485,7 @@
         <v>2022-04-01</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1497,7 +1499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1511,7 +1513,7 @@
         <v>2022-04-01</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1522,7 +1524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -1536,7 +1538,7 @@
         <v>2022-04-01</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1550,7 +1552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1564,7 +1566,7 @@
         <v>2022-02-01</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1578,7 +1580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1592,7 +1594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1606,7 +1608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -1620,7 +1622,7 @@
         <v>2022-02-01</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -1634,7 +1636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -1648,7 +1650,7 @@
         <v>2022-02-01</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -1662,7 +1664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -1676,7 +1678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1690,7 +1692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1704,7 +1706,7 @@
         <v>2021-04-01</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1718,7 +1720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1732,7 +1734,7 @@
         <v>2022-02-01</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1746,7 +1748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1760,7 +1762,7 @@
         <v>2022-02-01</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -1774,7 +1776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -1788,7 +1790,7 @@
         <v>2020-10-01</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -1802,7 +1804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -1816,7 +1818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -1830,7 +1832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -1844,7 +1846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -1858,7 +1860,7 @@
         <v>2021-04-01</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -1872,7 +1874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>23</v>
       </c>
@@ -1886,7 +1888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -1900,7 +1902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -1914,7 +1916,7 @@
         <v>2022-01-01</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -1928,7 +1930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -1942,7 +1944,7 @@
         <v>2021-04-01</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -1956,7 +1958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -1970,7 +1972,7 @@
         <v>2021-10-01</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -1984,7 +1986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -1998,7 +2000,7 @@
         <v>2021-04-01</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -2012,7 +2014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -2026,7 +2028,7 @@
         <v>2022-01-01</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>25</v>
       </c>
@@ -2040,7 +2042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>25</v>
       </c>
@@ -2054,7 +2056,7 @@
         <v>2022-01-01</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -2068,7 +2070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -2082,7 +2084,7 @@
         <v>2021-02-01</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>26</v>
       </c>
@@ -2096,7 +2098,7 @@
         <v>2022-01-01</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -2110,7 +2112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -2124,7 +2126,7 @@
         <v>2021-02-01</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -2138,7 +2140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -2152,7 +2154,7 @@
         <v>2021-02-01</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -2166,7 +2168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>27</v>
       </c>
@@ -2180,7 +2182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>28</v>
       </c>
@@ -2194,7 +2196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>28</v>
       </c>
@@ -2208,7 +2210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>29</v>
       </c>
@@ -2222,7 +2224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>29</v>
       </c>
@@ -2236,7 +2238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>30</v>
       </c>
@@ -2250,7 +2252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>30</v>
       </c>
@@ -2264,7 +2266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -2278,7 +2280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>31</v>
       </c>
@@ -2292,7 +2294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>32</v>
       </c>
@@ -2306,7 +2308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>32</v>
       </c>
